--- a/test/buy_history.xlsx
+++ b/test/buy_history.xlsx
@@ -25,7 +25,7 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Stock</t>
+    <t>Holding</t>
   </si>
   <si>
     <t>Total</t>
@@ -174,16 +174,16 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -355,9 +355,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -437,7 +437,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -465,10 +465,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -724,9 +724,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1014,7 +1014,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1042,10 +1042,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/test/buy_history.xlsx
+++ b/test/buy_history.xlsx
@@ -164,7 +164,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -178,6 +178,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1336,65 +1339,65 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
